--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$3:$F$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$3:$F$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="53">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -301,6 +301,16 @@
   </si>
   <si>
     <t>STOP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝突座標</t>
+    <rPh sb="0" eb="2">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザヒョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -688,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G49"/>
+  <dimension ref="A2:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1096,7 +1106,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -1111,10 +1121,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -1129,10 +1139,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>12</v>
@@ -1153,10 +1163,10 @@
         <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -1171,16 +1181,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -1195,13 +1205,13 @@
         <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -1216,10 +1226,10 @@
         <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -1234,10 +1244,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>14</v>
@@ -1258,7 +1268,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>14</v>
@@ -1279,7 +1289,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>14</v>
@@ -1300,7 +1310,7 @@
         <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>14</v>
@@ -1321,7 +1331,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>14</v>
@@ -1342,7 +1352,7 @@
         <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>14</v>
@@ -1363,7 +1373,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>14</v>
@@ -1384,7 +1394,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>14</v>
@@ -1405,7 +1415,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>14</v>
@@ -1426,7 +1436,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>14</v>
@@ -1447,7 +1457,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>14</v>
@@ -1468,7 +1478,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>14</v>
@@ -1489,26 +1499,38 @@
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="D40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -1592,9 +1614,18 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E3:F39">
+  <conditionalFormatting sqref="E3:F40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -701,7 +701,7 @@
   <dimension ref="A2:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1127,7 +1127,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$3:$F$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$3:$F$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -311,6 +311,14 @@
     <rPh sb="2" eb="4">
       <t>ザヒョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーパレット</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -698,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G50"/>
+  <dimension ref="A2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -992,19 +1000,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -1016,13 +1024,13 @@
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E16" s="4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -1037,16 +1045,16 @@
         <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -1058,16 +1066,16 @@
         <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -1079,7 +1087,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>14</v>
@@ -1100,13 +1108,13 @@
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -1121,10 +1129,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -1142,13 +1150,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -1160,16 +1168,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -1184,10 +1192,10 @@
         <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -1202,10 +1210,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>14</v>
@@ -1226,13 +1234,13 @@
         <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -1247,10 +1255,10 @@
         <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -1265,10 +1273,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>14</v>
@@ -1289,7 +1297,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>14</v>
@@ -1310,7 +1318,7 @@
         <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>14</v>
@@ -1331,7 +1339,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>14</v>
@@ -1352,7 +1360,7 @@
         <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>14</v>
@@ -1373,7 +1381,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>14</v>
@@ -1394,7 +1402,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>14</v>
@@ -1415,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>14</v>
@@ -1436,7 +1444,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>14</v>
@@ -1457,7 +1465,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>14</v>
@@ -1478,7 +1486,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>14</v>
@@ -1499,7 +1507,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>14</v>
@@ -1520,26 +1528,38 @@
         <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="D41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -1623,9 +1643,18 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E3:F40">
+  <conditionalFormatting sqref="E3:F41">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -319,6 +319,69 @@
   </si>
   <si>
     <t>カラーパレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU I/F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM書き込み</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM読みだし</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントロールレジスタ書き込み</t>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間接コントロールレジスタ書き込み</t>
+    <rPh sb="0" eb="2">
+      <t>カンセツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータスレジスタ読みだし</t>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターレースモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50Hz モード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSG</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -708,15 +771,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
     <col min="7" max="7" width="52.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1033,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -1243,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -1261,10 +1324,10 @@
         <v>15</v>
       </c>
       <c r="E27" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -1282,10 +1345,10 @@
         <v>14</v>
       </c>
       <c r="E28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -1563,66 +1626,150 @@
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.3</v>
+      </c>
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.3</v>
+      </c>
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -1655,6 +1802,114 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E3:F41">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:F42">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:F43">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:F44">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:F45">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:F46">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:F48">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:F48">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -772,7 +772,7 @@
   <dimension ref="A2:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -1327,7 +1327,7 @@
         <v>0.3</v>
       </c>
       <c r="F27" s="4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G27" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -772,7 +772,7 @@
   <dimension ref="A2:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -1324,10 +1324,10 @@
         <v>15</v>
       </c>
       <c r="E27" s="4">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F27" s="4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G27" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G8" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G11" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1576,10 +1576,10 @@
         <v>14</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="2"/>
     </row>
@@ -1597,10 +1597,10 @@
         <v>14</v>
       </c>
       <c r="E40" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="2"/>
     </row>
@@ -1618,10 +1618,10 @@
         <v>14</v>
       </c>
       <c r="E41" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G41" s="2"/>
     </row>
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="2"/>
     </row>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="2"/>
     </row>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G46" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -772,7 +772,7 @@
   <dimension ref="A2:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1534,10 +1534,10 @@
         <v>14</v>
       </c>
       <c r="E37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G37" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1429,10 +1429,10 @@
         <v>14</v>
       </c>
       <c r="E32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G32" s="2"/>
     </row>
@@ -1513,10 +1513,10 @@
         <v>14</v>
       </c>
       <c r="E36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G36" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -1408,10 +1408,10 @@
         <v>14</v>
       </c>
       <c r="E31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G31" s="2"/>
     </row>
@@ -1492,10 +1492,10 @@
         <v>14</v>
       </c>
       <c r="E35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G35" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -772,7 +772,7 @@
   <dimension ref="A2:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1387,7 +1387,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G37" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -772,7 +772,7 @@
   <dimension ref="A2:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1555,10 +1555,10 @@
         <v>14</v>
       </c>
       <c r="E38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G38" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -772,7 +772,7 @@
   <dimension ref="A2:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G38" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -772,7 +772,7 @@
   <dimension ref="A2:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1366,7 +1366,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>14</v>
       </c>
       <c r="E33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -772,7 +772,7 @@
   <dimension ref="A2:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G29" s="2"/>
     </row>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G33" s="2"/>
     </row>
@@ -1471,7 +1471,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -772,7 +772,7 @@
   <dimension ref="A2:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G30" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -772,7 +772,7 @@
   <dimension ref="A2:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G30" s="2"/>
     </row>
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G34" s="2"/>
     </row>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G38" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -772,7 +772,7 @@
   <dimension ref="A2:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -1324,10 +1324,10 @@
         <v>15</v>
       </c>
       <c r="E27" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2"/>
     </row>
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="4">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="G34" s="2"/>
     </row>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G46" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -382,6 +382,79 @@
   </si>
   <si>
     <t>SSG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9968</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDPコマンド高速・互換切り替え</t>
+    <rPh sb="7" eb="9">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゴカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDPコマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプライト垂直スクロール非追従</t>
+    <rPh sb="5" eb="7">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプライト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプライトカラー指定変更</t>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM 256KB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15bitカラーパレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡大縮小コマンド</t>
+    <rPh sb="0" eb="2">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュクショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -406,7 +479,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +507,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,12 +568,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -769,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G51"/>
+  <dimension ref="A2:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1009,7 +1099,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -1030,7 +1120,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -1773,35 +1863,194 @@
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
       <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E3:F41">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:F42">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:F43">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:F44">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:F45">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:F46">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -1813,7 +2062,91 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:F42">
+  <conditionalFormatting sqref="E47">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:F48">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:F48">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:F49">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:F49">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:F50">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:F50">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1825,7 +2158,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43:F43">
+  <conditionalFormatting sqref="E51:F51">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1837,7 +2170,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:F44">
+  <conditionalFormatting sqref="E51:F51">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1849,7 +2182,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:F45">
+  <conditionalFormatting sqref="E52:F52">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1861,7 +2194,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:F46">
+  <conditionalFormatting sqref="E52:F52">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1873,7 +2206,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="E3:F52">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1885,7 +2218,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:F48">
+  <conditionalFormatting sqref="E3:F53">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1897,7 +2230,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="E54:F54">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1909,7 +2242,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F48">
+  <conditionalFormatting sqref="E3:F54">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -862,7 +862,7 @@
   <dimension ref="A2:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1099,7 +1099,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>15</v>
       </c>
       <c r="E13" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G13" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -862,7 +862,7 @@
   <dimension ref="A2:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1099,10 +1099,10 @@
         <v>15</v>
       </c>
       <c r="E12" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1120,10 +1120,10 @@
         <v>15</v>
       </c>
       <c r="E13" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>0.3</v>
+        <v>0.85</v>
       </c>
       <c r="G13" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G16" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -1330,7 +1330,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -861,9 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1204,10 +1202,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G17" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -861,7 +861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1202,10 +1204,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F17" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -1226,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1246,7 +1246,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>64</v>
       </c>
       <c r="E52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4">
         <v>0</v>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -862,7 +862,7 @@
   <dimension ref="A2:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1960,7 +1960,7 @@
         <v>64</v>
       </c>
       <c r="E53" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -862,7 +862,7 @@
   <dimension ref="A2:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1960,10 +1960,10 @@
         <v>64</v>
       </c>
       <c r="E53" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F53" s="4">
         <v>0.5</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0</v>
       </c>
       <c r="G53" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1960,10 +1960,10 @@
         <v>64</v>
       </c>
       <c r="E53" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G53" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -861,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
@@ -1876,7 +1876,7 @@
         <v>64</v>
       </c>
       <c r="E49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -862,7 +862,7 @@
   <dimension ref="A2:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G49" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1981,10 +1981,10 @@
         <v>64</v>
       </c>
       <c r="E54" s="4">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F54" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G54" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="75">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -448,7 +448,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>拡大縮小コマンド</t>
+    <t>フォント描画コマンド LFMC</t>
+    <rPh sb="4" eb="6">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡大縮小コマンド LRMM</t>
     <rPh sb="0" eb="2">
       <t>カクダイ</t>
     </rPh>
@@ -859,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G54"/>
+  <dimension ref="A2:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1975,7 +1982,7 @@
         <v>66</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>64</v>
@@ -1987,11 +1994,32 @@
         <v>0.8</v>
       </c>
       <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G55" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E3:F41">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2003,6 +2031,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F42">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:F43">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:F44">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:F45">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2014,7 +2078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43:F43">
+  <conditionalFormatting sqref="E46:F46">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2026,7 +2090,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:F44">
+  <conditionalFormatting sqref="E47">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2038,7 +2102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:F45">
+  <conditionalFormatting sqref="E48:F48">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2050,7 +2114,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:F46">
+  <conditionalFormatting sqref="F47">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2062,7 +2126,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="E3:F48">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2074,7 +2138,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:F48">
+  <conditionalFormatting sqref="E49:F49">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2086,7 +2150,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="E49:F49">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2098,7 +2162,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F48">
+  <conditionalFormatting sqref="E50:F50">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2110,7 +2174,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
+  <conditionalFormatting sqref="E50:F50">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2122,7 +2186,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
+  <conditionalFormatting sqref="E51:F51">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2134,7 +2198,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
+  <conditionalFormatting sqref="E51:F51">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2146,7 +2210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
+  <conditionalFormatting sqref="E52:F52">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2158,7 +2222,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51:F51">
+  <conditionalFormatting sqref="E52:F52">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2170,7 +2234,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51:F51">
+  <conditionalFormatting sqref="E3:F52">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2182,7 +2246,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52:F52">
+  <conditionalFormatting sqref="E3:F53">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2194,7 +2258,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52:F52">
+  <conditionalFormatting sqref="E54:F54">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2206,7 +2270,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F52">
+  <conditionalFormatting sqref="E3:F54">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2218,7 +2282,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F53">
+  <conditionalFormatting sqref="E55:F55">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2230,7 +2294,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:F54">
+  <conditionalFormatting sqref="E55:F55">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2242,7 +2306,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F54">
+  <conditionalFormatting sqref="E3:F55">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="76">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -461,6 +461,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォント描画コマンド LFMM</t>
+    <rPh sb="4" eb="6">
+      <t>ビョウガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -866,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G55"/>
+  <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2016,10 +2023,31 @@
       </c>
       <c r="G55" s="2"/>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="7">
+        <v>53</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E3:F41">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2031,6 +2059,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F42">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:F43">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:F44">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:F45">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:F46">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2042,7 +2118,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43:F43">
+  <conditionalFormatting sqref="E47">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2054,7 +2130,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:F44">
+  <conditionalFormatting sqref="E48:F48">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2066,7 +2142,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:F45">
+  <conditionalFormatting sqref="F47">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2078,7 +2154,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:F46">
+  <conditionalFormatting sqref="E3:F48">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2090,7 +2166,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="E49:F49">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2102,7 +2178,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:F48">
+  <conditionalFormatting sqref="E49:F49">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2114,7 +2190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="E50:F50">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2126,7 +2202,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F48">
+  <conditionalFormatting sqref="E50:F50">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2138,7 +2214,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
+  <conditionalFormatting sqref="E51:F51">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2150,7 +2226,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
+  <conditionalFormatting sqref="E51:F51">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2162,7 +2238,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
+  <conditionalFormatting sqref="E52:F52">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2174,7 +2250,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
+  <conditionalFormatting sqref="E52:F52">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2186,7 +2262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51:F51">
+  <conditionalFormatting sqref="E3:F52">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2198,7 +2274,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51:F51">
+  <conditionalFormatting sqref="E3:F53">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2210,7 +2286,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52:F52">
+  <conditionalFormatting sqref="E54:F54">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2222,7 +2298,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52:F52">
+  <conditionalFormatting sqref="E3:F54">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2234,7 +2310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F52">
+  <conditionalFormatting sqref="E55:F55">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2246,7 +2322,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F53">
+  <conditionalFormatting sqref="E55:F55">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2258,7 +2334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:F54">
+  <conditionalFormatting sqref="E3:F55">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2270,7 +2346,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F54">
+  <conditionalFormatting sqref="E56:F56">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2282,7 +2358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55:F55">
+  <conditionalFormatting sqref="E56:F56">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2294,7 +2370,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55:F55">
+  <conditionalFormatting sqref="E56:F56">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2306,7 +2382,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F55">
+  <conditionalFormatting sqref="E3:F56">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1218,10 +1218,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="4">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F17" s="4">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -2047,7 +2047,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E3:F41">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2059,6 +2059,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F42">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:F43">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2070,7 +2082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43:F43">
+  <conditionalFormatting sqref="E44:F44">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2082,7 +2094,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:F44">
+  <conditionalFormatting sqref="E45:F45">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2094,7 +2106,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:F45">
+  <conditionalFormatting sqref="E46:F46">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2106,7 +2118,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:F46">
+  <conditionalFormatting sqref="E47">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2118,7 +2130,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="E48:F48">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2130,7 +2142,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:F48">
+  <conditionalFormatting sqref="F47">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2142,7 +2154,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="E3:F48">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2154,7 +2166,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F48">
+  <conditionalFormatting sqref="E49:F49">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2178,7 +2190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
+  <conditionalFormatting sqref="E50:F50">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2202,7 +2214,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
+  <conditionalFormatting sqref="E51:F51">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2226,7 +2238,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51:F51">
+  <conditionalFormatting sqref="E52:F52">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2250,7 +2262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52:F52">
+  <conditionalFormatting sqref="E3:F52">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2262,7 +2274,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F52">
+  <conditionalFormatting sqref="E3:F53">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2274,7 +2286,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F53">
+  <conditionalFormatting sqref="E54:F54">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2286,7 +2298,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:F54">
+  <conditionalFormatting sqref="E3:F54">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2298,7 +2310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F54">
+  <conditionalFormatting sqref="E55:F55">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2322,7 +2334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55:F55">
+  <conditionalFormatting sqref="E3:F55">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2334,7 +2346,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F55">
+  <conditionalFormatting sqref="E56:F56">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2360,18 +2372,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:F56">
     <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56:F56">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1218,10 +1218,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F17" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1260,10 +1260,10 @@
         <v>14</v>
       </c>
       <c r="E19" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1911,10 +1911,10 @@
         <v>64</v>
       </c>
       <c r="E50" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="2"/>
     </row>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G56" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -426,16 +426,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スプライトカラー指定変更</t>
-    <rPh sb="8" eb="10">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VRAM 256KB</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -469,6 +459,10 @@
     <rPh sb="4" eb="6">
       <t>ビョウガ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプライトモード３</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -875,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1926,7 +1920,7 @@
         <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>64</v>
@@ -1944,10 +1938,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>64</v>
@@ -1968,7 +1962,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>64</v>
@@ -1989,7 +1983,7 @@
         <v>66</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>64</v>
@@ -2010,7 +2004,7 @@
         <v>38</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>64</v>
@@ -2031,7 +2025,7 @@
         <v>38</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>64</v>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1926,7 +1926,7 @@
         <v>64</v>
       </c>
       <c r="E51" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1926,7 +1926,7 @@
         <v>64</v>
       </c>
       <c r="E51" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G51" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="G51" s="2"/>
     </row>
@@ -1989,7 +1989,7 @@
         <v>64</v>
       </c>
       <c r="E54" s="4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F54" s="4">
         <v>0.8</v>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="78">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -463,6 +463,35 @@
   </si>
   <si>
     <t>スプライトモード３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDPコマンド完了割り込み</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平帰線割込（スクロール影響なしモード）</t>
+    <rPh sb="0" eb="2">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キセン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エイキョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -867,17 +896,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G56"/>
+  <dimension ref="A2:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="29.25" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
     <col min="7" max="7" width="52.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1362,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -1383,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -1914,13 +1943,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>64</v>
@@ -1929,19 +1958,19 @@
         <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>50</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>69</v>
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>64</v>
@@ -1950,19 +1979,19 @@
         <v>1</v>
       </c>
       <c r="F52" s="4">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="7">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>50</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>64</v>
@@ -1971,19 +2000,19 @@
         <v>1</v>
       </c>
       <c r="F53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>64</v>
@@ -1992,19 +2021,19 @@
         <v>1</v>
       </c>
       <c r="F54" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>64</v>
@@ -2025,7 +2054,7 @@
         <v>38</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>64</v>
@@ -2037,10 +2066,100 @@
         <v>0.8</v>
       </c>
       <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="7">
+        <v>54</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="7">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E3:F41">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:F42">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:F43">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:F44">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:F45">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -2052,7 +2171,91 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:F42">
+  <conditionalFormatting sqref="E46:F46">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:F48">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:F48">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:F49">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:F49">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:F50">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -2064,7 +2267,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43:F43">
+  <conditionalFormatting sqref="E50:F50">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2076,7 +2279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:F44">
+  <conditionalFormatting sqref="E52:F52">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2088,7 +2291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:F45">
+  <conditionalFormatting sqref="E52:F52">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2100,7 +2303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:F46">
+  <conditionalFormatting sqref="E53:F53">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2112,7 +2315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="E53:F53">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -2124,7 +2327,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:F48">
+  <conditionalFormatting sqref="E3:F50 E52:F53">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -2136,7 +2339,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="E3:F50 E52:F54">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -2148,7 +2351,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F48">
+  <conditionalFormatting sqref="E55:F55">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2160,7 +2363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
+  <conditionalFormatting sqref="E3:F50 E52:F55">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2172,7 +2375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
+  <conditionalFormatting sqref="E56:F56">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2184,7 +2387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
+  <conditionalFormatting sqref="E56:F56">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2196,7 +2399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
+  <conditionalFormatting sqref="E3:F50 E52:F56">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2208,8 +2411,104 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E57:F57">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:F57">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:F57">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:F50 E52:F57">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:F58">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:F58">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:F58">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:F58">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E51:F51">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2221,114 +2520,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:F51">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:F52">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:F52">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F52">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F53">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54:F54">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F54">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:F55">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:F55">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F55">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2340,7 +2531,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:F56">
+  <conditionalFormatting sqref="E51:F51">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2352,7 +2543,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:F56">
+  <conditionalFormatting sqref="E51:F51">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2364,7 +2555,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:F56">
+  <conditionalFormatting sqref="E51:F51">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2376,7 +2567,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F56">
+  <conditionalFormatting sqref="E51:F51">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:F51">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G47" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G46" s="2"/>
     </row>
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G47" s="2"/>
     </row>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G48" s="2"/>
     </row>
@@ -1916,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G49" s="2"/>
     </row>
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="2"/>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/doc/th9958_progress.xlsx
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1160,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -1328,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G22" s="2"/>
     </row>
